--- a/srcs/shablons/SPS_CD.xlsx
+++ b/srcs/shablons/SPS_CD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\ENGGEO_program\srcs\shablons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\srcs\shablons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CE7A21-B37A-451A-A685-73A0F63F4588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB8A19-454B-4FCF-9CD7-42757491BB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
   </si>
@@ -129,18 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">Результаты испытаний </t>
-  </si>
-  <si>
-    <t>Модуль деформации, МПа:</t>
-  </si>
-  <si>
-    <t>Е0=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E50 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коэф. Поперечной деформации, ϑ = </t>
   </si>
   <si>
     <t>Эффективные значения угла внутреннего трения и удельного сцепления ϕ', С'</t>
@@ -280,6 +268,9 @@
     <t>Удельное сцепление
 C, МПа</t>
   </si>
+  <si>
+    <t>Испытание грунтов методом одноплоскостного среза</t>
+  </si>
 </sst>
 </file>
 
@@ -288,9 +279,9 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="General_)"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="General_)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -450,7 +441,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +593,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -612,7 +609,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -634,9 +630,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -645,9 +638,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -691,7 +681,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -715,18 +705,13 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,26 +727,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -771,7 +753,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,7 +768,7 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,27 +777,102 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3363,1021 +3420,1284 @@
   </sheetPr>
   <dimension ref="A1:BF564"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="53" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="53" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="53" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="53" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="53" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="53" customWidth="1"/>
-    <col min="14" max="16" width="16.28515625" style="53" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="53" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="53" customWidth="1"/>
-    <col min="20" max="20" width="13" style="53" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="53" customWidth="1"/>
-    <col min="22" max="22" width="12" style="53" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="53" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="15.85546875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="50" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="50" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="50" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="50" customWidth="1"/>
+    <col min="14" max="16" width="16.28515625" style="50" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="50" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="50" customWidth="1"/>
+    <col min="20" max="20" width="13" style="50" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="50" customWidth="1"/>
+    <col min="22" max="22" width="12" style="50" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="50" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="90" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="90" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
     </row>
     <row r="4" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="90" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
     </row>
     <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="89" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="45"/>
-      <c r="BF6" s="45"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="42"/>
+      <c r="BF6" s="42"/>
     </row>
     <row r="7" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="90" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="47"/>
-      <c r="BF7" s="48"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="45"/>
     </row>
     <row r="8" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="3"/>
       <c r="U8" s="4"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="49"/>
-      <c r="BF8" s="45"/>
+      <c r="BD8" s="43"/>
+      <c r="BE8" s="46"/>
+      <c r="BF8" s="42"/>
     </row>
     <row r="9" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="92" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="50"/>
-      <c r="BF9" s="45"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="42"/>
     </row>
     <row r="10" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="BD10" s="46"/>
-      <c r="BE10" s="51"/>
-      <c r="BF10" s="45"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+      <c r="BD10" s="43"/>
+      <c r="BE10" s="48"/>
+      <c r="BF10" s="42"/>
     </row>
     <row r="11" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="str">
+      <c r="A11" s="97" t="str">
         <f>M11</f>
         <v>Наименование и адрес заказчика: Переход трубопровода через р. Енисей</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="BD11" s="45"/>
-      <c r="BE11" s="45"/>
-      <c r="BF11" s="45"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
     </row>
     <row r="12" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="str">
+      <c r="A12" s="99" t="str">
         <f>M12</f>
         <v>Наименование объекта: ООО Регионстрой</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="11" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
     </row>
     <row r="13" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="18" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
     </row>
     <row r="14" spans="1:58" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="18" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="str">
+      <c r="A15" s="97" t="str">
         <f>M15</f>
         <v>Дата получение объекта подлежащего испытаниям: 07.04.2022</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="18" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="AX15" s="94"/>
-      <c r="AY15" s="88"/>
-      <c r="BD15" s="43"/>
-      <c r="BE15" s="52"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" s="81"/>
+      <c r="BD15" s="40"/>
+      <c r="BE15" s="49"/>
     </row>
     <row r="16" spans="1:58" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="str">
+      <c r="A16" s="97" t="str">
         <f>M16</f>
         <v>Дата испытания: 07.04.2022-29.04.2022</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="13"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="18" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="16"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="37"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="38"/>
-      <c r="BB16" s="39"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="15"/>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="35"/>
+      <c r="BA16" s="35"/>
+      <c r="BB16" s="36"/>
     </row>
     <row r="17" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="AX17" s="40"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="42"/>
-      <c r="BA17" s="38"/>
-      <c r="BB17" s="38"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="35"/>
+      <c r="BB17" s="35"/>
     </row>
     <row r="18" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="AX18" s="40"/>
-      <c r="AY18" s="41"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="38"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="AX19" s="40"/>
-      <c r="AY19" s="41"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="AX19" s="37"/>
+      <c r="AY19" s="38"/>
     </row>
     <row r="20" spans="1:55" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="33" t="str">
+      <c r="B20" s="111"/>
+      <c r="C20" s="112" t="str">
         <f>O20</f>
         <v>52330</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26" t="s">
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="114">
         <f>U20</f>
         <v>0.26898871600000002</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="24" t="s">
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="33" t="s">
+      <c r="N20" s="22"/>
+      <c r="O20" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="26" t="s">
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U20" s="69">
+      <c r="U20" s="62">
         <v>0.26898871600000002</v>
       </c>
-      <c r="AX20" s="40"/>
-      <c r="AY20" s="41"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="38"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="33" t="str">
+      <c r="B21" s="111"/>
+      <c r="C21" s="112" t="str">
         <f>O21</f>
         <v>BH-101</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26" t="s">
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="114">
         <f>U21</f>
         <v>1.8</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="24" t="s">
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="33" t="s">
+      <c r="N21" s="22"/>
+      <c r="O21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="26" t="s">
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U21" s="59">
+      <c r="U21" s="54">
         <v>1.8</v>
       </c>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="41"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="38"/>
     </row>
     <row r="22" spans="1:55" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="33" t="str">
+      <c r="B22" s="111"/>
+      <c r="C22" s="112" t="str">
         <f>O22</f>
         <v>0.9</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26" t="s">
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="114">
         <f>U22</f>
         <v>2.74</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="24" t="s">
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="58" t="s">
+      <c r="N22" s="22"/>
+      <c r="O22" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="26" t="s">
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="59">
+      <c r="U22" s="54">
         <v>2.74</v>
       </c>
-      <c r="AX22" s="94"/>
-      <c r="AY22" s="88"/>
+      <c r="AX22" s="83"/>
+      <c r="AY22" s="81"/>
     </row>
     <row r="23" spans="1:55" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="33" t="str">
+      <c r="B23" s="111"/>
+      <c r="C23" s="112" t="str">
         <f>O23</f>
         <v>Суглинок щебенистый, мягкопластичный, легкий пылеватый</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26" t="s">
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="114">
         <f>U23</f>
         <v>0.9316828232444444</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="24" t="s">
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="33" t="s">
+      <c r="N23" s="22"/>
+      <c r="O23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="26" t="s">
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U23" s="59">
+      <c r="U23" s="54">
         <v>0.9316828232444444</v>
       </c>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="38"/>
-      <c r="BA23" s="38"/>
-      <c r="BB23" s="39"/>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="34"/>
+      <c r="AZ23" s="35"/>
+      <c r="BA23" s="35"/>
+      <c r="BB23" s="36"/>
     </row>
     <row r="24" spans="1:55" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="33" t="str">
+      <c r="B24" s="111"/>
+      <c r="C24" s="112" t="str">
         <f>O24</f>
         <v>КД</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26" t="s">
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="114">
         <f>U24</f>
         <v>0.8</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25" t="s">
+      <c r="J24" s="115"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="33" t="s">
+      <c r="N24" s="22"/>
+      <c r="O24" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26" t="s">
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="U24" s="59">
+      <c r="U24" s="54">
         <v>0.8</v>
       </c>
-      <c r="AX24" s="40"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="38"/>
-      <c r="BB24" s="38"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="35"/>
+      <c r="BB24" s="35"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="AX25" s="40"/>
-      <c r="AY25" s="41"/>
-      <c r="BC25" s="44"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="38"/>
+      <c r="BC25" s="41"/>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AX26" s="40"/>
-      <c r="AY26" s="41"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="38"/>
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="91" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="AX27" s="40"/>
-      <c r="AY27" s="41"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="AX27" s="37"/>
+      <c r="AY27" s="38"/>
     </row>
     <row r="28" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AX28" s="40"/>
-      <c r="AY28" s="41"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="38"/>
     </row>
     <row r="29" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AX29" s="94"/>
-      <c r="AY29" s="88"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="81"/>
     </row>
     <row r="30" spans="1:55" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AX30" s="36"/>
-      <c r="AY30" s="37"/>
-      <c r="AZ30" s="38"/>
-      <c r="BA30" s="38"/>
-      <c r="BB30" s="39"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="AX30" s="33"/>
+      <c r="AY30" s="34"/>
+      <c r="AZ30" s="35"/>
+      <c r="BA30" s="35"/>
+      <c r="BB30" s="36"/>
     </row>
     <row r="31" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AX31" s="40"/>
-      <c r="AY31" s="41"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="38"/>
-      <c r="BB31" s="38"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="AX31" s="37"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="39"/>
+      <c r="BA31" s="35"/>
+      <c r="BB31" s="35"/>
     </row>
     <row r="32" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AX32" s="40"/>
-      <c r="AY32" s="41"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="38"/>
     </row>
     <row r="33" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AX33" s="40"/>
-      <c r="AY33" s="41"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="AX33" s="37"/>
+      <c r="AY33" s="38"/>
     </row>
     <row r="34" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AX34" s="40"/>
-      <c r="AY34" s="41"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="38"/>
     </row>
     <row r="35" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AX35" s="40"/>
-      <c r="AY35" s="41"/>
-    </row>
-    <row r="36" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="38"/>
+    </row>
+    <row r="36" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+    </row>
+    <row r="37" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="105"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+    </row>
+    <row r="38" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="105"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+    </row>
+    <row r="39" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+    </row>
+    <row r="40" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="105"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+    </row>
+    <row r="41" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="105"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+    </row>
+    <row r="42" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A43" s="105"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A44" s="105"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A45" s="105"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+    </row>
     <row r="46" spans="1:51" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="N46" s="77" t="s">
+      <c r="A46" s="105"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="N46" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q46" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="R46" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="O46" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="P46" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q46" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="R46" s="77" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="47" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="81"/>
-      <c r="W47" s="53">
+      <c r="A47" s="105"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="74"/>
+      <c r="W47" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="82" t="e">
+      <c r="A48" s="118"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="75" t="e">
         <f>SLOPE(O47:O49,N47:N49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q48" s="83" t="e">
+      <c r="Q48" s="76" t="e">
         <f>ATAN(P48)*180/PI()</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="84" t="e">
+      <c r="R48" s="77" t="e">
         <f>((O47+O48+O49)*(N47^2+N48^2+N49^2)-(N47+N48+N49)*(O47*N47+O48*N48+O49*N49))/(3*(N47^2+N48^2+N49^2)-((N47+N48+N49)^2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="85"/>
-      <c r="Q49" s="85"/>
-      <c r="R49" s="86"/>
+      <c r="A49" s="118"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="79"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="62" t="e">
-        <f>B70/A70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="Q50" s="28"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="Q50" s="25"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="62" t="e">
-        <f>A65/B65</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -4385,7 +4705,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="31"/>
+      <c r="Q51" s="28"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4395,16 +4715,14 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="54"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="29" t="s">
-        <v>35</v>
+      <c r="N52" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4424,10 +4742,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="O53" s="32">
+      <c r="N53" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="29">
         <v>20</v>
       </c>
       <c r="P53" s="1"/>
@@ -4439,10 +4757,10 @@
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M54" s="1"/>
-      <c r="N54" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="O54" s="70">
+      <c r="N54" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="63">
         <v>0.04</v>
       </c>
       <c r="P54" s="1"/>
@@ -4455,315 +4773,315 @@
     <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57" s="10"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="9"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O57" s="9"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="10" t="s">
-        <v>39</v>
+      <c r="M57" s="9"/>
+      <c r="N57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J58" s="10"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J58" s="9"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="8" t="s">
+      <c r="M58" s="9"/>
+      <c r="N58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="9"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="81"/>
+      <c r="S60" s="81"/>
+      <c r="T60" s="81"/>
+      <c r="U60" s="81"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="O58" s="9"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8" t="s">
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="81"/>
+      <c r="S61" s="81"/>
+      <c r="T61" s="81"/>
+      <c r="U61" s="81"/>
+    </row>
+    <row r="63" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="10"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="93" t="s">
+      <c r="H63" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="93" t="s">
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F64" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="87" t="s">
+      <c r="G64" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-    </row>
-    <row r="63" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F63" s="34" t="s">
+      <c r="H64" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="J64" s="55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F64" s="53" t="s">
+      <c r="K64" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="G64" s="53" t="s">
+      <c r="L64" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H64" s="53" t="s">
+      <c r="M64" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="61" t="s">
+      <c r="N64" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="K64" s="61" t="s">
+      <c r="O64" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="L64" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="M64" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="N64" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="O64" s="61" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="74"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="71"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="64"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F66" s="74"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
-      <c r="J66" s="74"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="74"/>
-      <c r="N66" s="75"/>
-      <c r="O66" s="71"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="64"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="71"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="64"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="71"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="64"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F69" s="74"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="J69" s="74"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="74"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="71"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="64"/>
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F70" s="74"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="71"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="68"/>
+      <c r="O70" s="64"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F71" s="74"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="74"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="71"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="64"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F72" s="74"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="74"/>
-      <c r="N72" s="75"/>
-      <c r="O72" s="71"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="68"/>
+      <c r="O72" s="64"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="73"/>
-      <c r="B73" s="73"/>
-      <c r="D73" s="72"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="71"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="66"/>
+      <c r="D73" s="65"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="64"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="75"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="75"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="74"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="71"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="64"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="74"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="71"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="68"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="67"/>
+      <c r="N75" s="68"/>
+      <c r="O75" s="64"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="72"/>
-      <c r="C76" s="76"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="71"/>
+      <c r="A76" s="65"/>
+      <c r="C76" s="69"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="67"/>
+      <c r="N76" s="68"/>
+      <c r="O76" s="64"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77"/>
@@ -4776,7 +5094,7 @@
       <c r="O77"/>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72"/>
+      <c r="A78" s="65"/>
       <c r="F78"/>
       <c r="G78"/>
       <c r="J78"/>
@@ -4787,8 +5105,8 @@
       <c r="O78"/>
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="72"/>
-      <c r="D79" s="71"/>
+      <c r="A79" s="65"/>
+      <c r="D79" s="64"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="J79"/>
@@ -4819,8 +5137,8 @@
       <c r="O81"/>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="J82"/>
@@ -4851,9 +5169,9 @@
       <c r="O84"/>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
-      <c r="B85" s="71"/>
-      <c r="D85" s="72"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="D85" s="65"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="J85"/>
@@ -4864,9 +5182,9 @@
       <c r="O85"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="D86" s="72"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="64"/>
+      <c r="D86" s="65"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="J86"/>
@@ -4887,9 +5205,9 @@
       <c r="O87"/>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="71"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="73"/>
+      <c r="A88" s="64"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
       <c r="F88"/>
       <c r="G88"/>
       <c r="J88"/>
@@ -4900,8 +5218,8 @@
       <c r="O88"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
-      <c r="B89" s="71"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="64"/>
       <c r="F89"/>
       <c r="G89"/>
       <c r="J89"/>
@@ -6963,6 +7281,18 @@
     <row r="564" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="M6:U6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="M27:U27"/>
+    <mergeCell ref="M61:U61"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="M9:V9"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M60:U60"/>
     <mergeCell ref="M2:U2"/>
     <mergeCell ref="A60:K60"/>
     <mergeCell ref="AX22:AY22"/>
@@ -6976,21 +7306,9 @@
     <mergeCell ref="M5:U5"/>
     <mergeCell ref="M1:U1"/>
     <mergeCell ref="AX29:AY29"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="M6:U6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="M27:U27"/>
-    <mergeCell ref="M61:U61"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M60:U60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToWidth="2" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToWidth="2" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/srcs/shablons/SPS_CD.xlsx
+++ b/srcs/shablons/SPS_CD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\srcs\shablons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB8A19-454B-4FCF-9CD7-42757491BB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621999D0-13A1-4ED4-A4A0-77458B3A9BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$V$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$M$1:$V$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Наименование объекта: ООО Регионстрой</t>
   </si>
   <si>
-    <t xml:space="preserve">Наименование используемого метода/методики: ГОСТ 12248.4-2020 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Наименование используемого метода/методики: ГОСТ 12248.3-2020 </t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>Дата испытания: 07.04.2022-29.04.2022</t>
-  </si>
-  <si>
-    <t>Испытание грунтов методом трехосного сжатия</t>
   </si>
   <si>
     <t xml:space="preserve">Лабораторный номер: </t>
@@ -140,22 +134,10 @@
     <t>С', МПа =</t>
   </si>
   <si>
-    <t>Исполнитель:</t>
-  </si>
-  <si>
-    <t>Морозов Д.С.</t>
-  </si>
-  <si>
     <t>Начальник исп. лаборатории:</t>
   </si>
   <si>
     <t>Семиколенова Л.Г.</t>
-  </si>
-  <si>
-    <t>Лист 1 , всего листов 2</t>
-  </si>
-  <si>
-    <t>Лист 2 , всего листов 2</t>
   </si>
   <si>
     <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
@@ -270,6 +252,9 @@
   </si>
   <si>
     <t>Испытание грунтов методом одноплоскостного среза</t>
+  </si>
+  <si>
+    <t>Лист 1 , всего листов 1</t>
   </si>
 </sst>
 </file>
@@ -441,7 +426,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,12 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,7 +572,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -601,12 +580,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
@@ -702,9 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -715,20 +685,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -777,102 +735,66 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -908,85 +830,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1320" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="el-GR"/>
-              <a:t>ε</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>1 = f(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR"/>
-              <a:t>σ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>1- </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1320" b="0" i="0" strike="noStrike" baseline="0"/>
-              <a:t>σ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1320" b="0" i="0" strike="noStrike" baseline="0"/>
-              <a:t>3</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>) </a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.4209003690036901"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1190799371664847"/>
-          <c:y val="0.1296296872559167"/>
-          <c:w val="0.80471762904636912"/>
-          <c:h val="0.72035505978419367"/>
+          <c:x val="0.14898320684883479"/>
+          <c:y val="6.4735314378347508E-2"/>
+          <c:w val="0.79562842636581954"/>
+          <c:h val="0.77308180808707594"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1003,9 +857,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1042,13 +896,13 @@
             <c:v>второе испытание</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1089,9 +943,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1150,9 +1004,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -1162,7 +1016,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1175,32 +1029,68 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="el-GR"/>
-                  <a:t>ε</a:t>
+                  <a:rPr lang="ru-RU">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Деформация</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>1, д.е.</a:t>
+                  <a:rPr lang="ru-RU" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> среза </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>l</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>, мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.85012729658792652"/>
-              <c:y val="0.91571741032370957"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1215,16 +1105,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1260,57 +1150,89 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="el-GR"/>
-                  <a:t>σ</a:t>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Касательное напряжение </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>1, МПа</a:t>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:sym typeface="Symbol"/>
+                  </a:rPr>
+                  <a:t>, МПа</a:t>
                 </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="7.4999999999999997E-2"/>
-              <c:y val="2.074475065616798E-2"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1325,16 +1247,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1353,467 +1275,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="900" b="1"/>
-              <a:t>Графическое определение  модуля деформации Е</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1643601355782989"/>
-          <c:y val="2.4727269895230362E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1377003799123841"/>
-          <c:y val="0.1528557400690157"/>
-          <c:w val="0.79992953368546449"/>
-          <c:h val="0.66827004515160549"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1'!$G$65:$G$2000</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1936"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1'!$F$65:$F$2000</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1936"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F31-4027-8C4A-570F6D82F9D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Верхняя горизонтальная</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1'!$C$85:$C$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1'!$D$85:$D$86</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F31-4027-8C4A-570F6D82F9D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Прямая</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1'!$C$78:$C$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1'!$D$78:$D$79</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7F31-4027-8C4A-570F6D82F9D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="392148096"/>
-        <c:axId val="392150016"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="392148096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="9"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" b="1"/>
-                  <a:t>ε1, д.е.</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.86630242116985634"/>
-              <c:y val="0.88376106318174419"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392150016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="392150016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>q, </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" b="1"/>
-                  <a:t>МПа</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="5.5785832340570538E-2"/>
-              <c:y val="4.8978166664395133E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392148096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1830,10 +1298,20 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1842,646 +1320,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="900"/>
-              <a:t>Графическое определение  модуля деформации Е50</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15027427289406259"/>
-          <c:y val="2.4603375505628421E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.652287553068384E-2"/>
-          <c:y val="0.12456759026028549"/>
-          <c:w val="0.92408441295324872"/>
-          <c:h val="0.72630291490641752"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1'!$G$65:$G$2000</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1936"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1'!$F$65:$F$2000</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1936"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FACD-4AB4-99C8-5FC03AAD37AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Кас.50</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="3"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                </a:ln>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-FACD-4AB4-99C8-5FC03AAD37AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="3"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                </a:ln>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-FACD-4AB4-99C8-5FC03AAD37AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1'!$A$81:$A$82</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1'!$B$81:$B$82</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FACD-4AB4-99C8-5FC03AAD37AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>2 Горизонтальня</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-FACD-4AB4-99C8-5FC03AAD37AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1'!$A$75:$A$76</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1'!$B$75:$B$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-FACD-4AB4-99C8-5FC03AAD37AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>3 Горизонтальная Макс</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1'!$A$85:$A$86</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1'!$B$85:$B$86</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-FACD-4AB4-99C8-5FC03AAD37AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>4 Вертикальная Макс</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1'!$A$88:$A$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1'!$B$88:$B$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-FACD-4AB4-99C8-5FC03AAD37AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>5 Вертикальная</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'1'!$A$78:$A$79</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'1'!$B$78:$B$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-FACD-4AB4-99C8-5FC03AAD37AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="391153920"/>
-        <c:axId val="391156096"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="391153920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="9"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="900"/>
-                  <a:t>ε1, д.е.</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.91026191962444192"/>
-              <c:y val="0.92206535895859365"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391156096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:minorUnit val="0.01"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="391156096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900"/>
-                  <a:t>q</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="900"/>
-                  <a:t>, МПа</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="4.2651831247102458E-2"/>
-              <c:y val="4.322682586591034E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391153920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2715,20 +1554,576 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>721177</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>760940</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2751,221 +2146,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114745</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>384575</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>149394</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>233854</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>183933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>873602</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>166460</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>80794</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>487040</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>150200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="image1-4.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect l="66382" t="40700" r="-3101" b="46296"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4675909" y="11216385"/>
-          <a:ext cx="1785904" cy="606270"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>373869</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>92000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>640449</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>50522</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="image1-4.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect l="53604" t="72637" r="12698" b="9368"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4911233" y="10846591"/>
-          <a:ext cx="1703989" cy="876386"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>670267</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>284174</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>84131</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5207631" y="10235046"/>
-          <a:ext cx="1882588" cy="1694721"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2993,7 +2173,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect l="66382" t="40700" r="-3101" b="46296"/>
         <a:stretch>
           <a:fillRect/>
@@ -3003,54 +2183,6 @@
         <a:xfrm>
           <a:off x="13733319" y="11164430"/>
           <a:ext cx="1785904" cy="606270"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>460461</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>40045</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>467268</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>171749</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="image1-4.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect l="53604" t="72637" r="12698" b="9368"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13968643" y="10794636"/>
-          <a:ext cx="1703989" cy="876386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3091,7 +2223,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3114,15 +2246,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>347383</xdr:colOff>
+      <xdr:colOff>22414</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>244530</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>15367</xdr:rowOff>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3143,7 +2275,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3415,1289 +2547,934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:BF564"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="50" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="50" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="50" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="50" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="50" customWidth="1"/>
-    <col min="14" max="16" width="16.28515625" style="50" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="50" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="50" customWidth="1"/>
-    <col min="20" max="20" width="13" style="50" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="50" customWidth="1"/>
-    <col min="22" max="22" width="12" style="50" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="50" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="15.85546875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="48" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="48" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="48" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="48" customWidth="1"/>
+    <col min="14" max="16" width="16.28515625" style="48" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="48" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="48" customWidth="1"/>
+    <col min="20" max="20" width="13" style="48" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="48" customWidth="1"/>
+    <col min="22" max="22" width="12" style="48" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="48" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
     </row>
     <row r="4" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
     </row>
     <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
     </row>
     <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="91"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="40"/>
     </row>
     <row r="7" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="45"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="BD7" s="41"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="43"/>
     </row>
     <row r="8" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="3"/>
       <c r="U8" s="4"/>
-      <c r="BD8" s="43"/>
-      <c r="BE8" s="46"/>
-      <c r="BF8" s="42"/>
+      <c r="BD8" s="41"/>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="40"/>
     </row>
     <row r="9" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="87" t="s">
+      <c r="A9" s="93"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="47"/>
-      <c r="BF9" s="42"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="BD9" s="41"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="40"/>
     </row>
     <row r="10" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14"/>
-      <c r="BD10" s="43"/>
-      <c r="BE10" s="48"/>
-      <c r="BF10" s="42"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
+      <c r="BD10" s="41"/>
+      <c r="BE10" s="46"/>
+      <c r="BF10" s="40"/>
     </row>
     <row r="11" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="str">
-        <f>M11</f>
-        <v>Наименование и адрес заказчика: Переход трубопровода через р. Енисей</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="16" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="14"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="42"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
+      <c r="BD11" s="40"/>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="40"/>
     </row>
     <row r="12" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="str">
-        <f>M12</f>
-        <v>Наименование объекта: ООО Регионстрой</v>
-      </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="1:58" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-    </row>
-    <row r="14" spans="1:58" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+    </row>
+    <row r="15" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-    </row>
-    <row r="15" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="str">
-        <f>M15</f>
-        <v>Дата получение объекта подлежащего испытаниям: 07.04.2022</v>
-      </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="AX15" s="95"/>
+      <c r="AY15" s="90"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="47"/>
+    </row>
+    <row r="16" spans="1:58" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="10"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="AX15" s="83"/>
-      <c r="AY15" s="81"/>
-      <c r="BD15" s="40"/>
-      <c r="BE15" s="49"/>
-    </row>
-    <row r="16" spans="1:58" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="str">
-        <f>M16</f>
-        <v>Дата испытания: 07.04.2022-29.04.2022</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="10"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="13"/>
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="33"/>
+      <c r="BB16" s="34"/>
+    </row>
+    <row r="17" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="AX17" s="35"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="33"/>
+      <c r="BB17" s="33"/>
+    </row>
+    <row r="18" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="92"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="36"/>
+    </row>
+    <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="AX19" s="35"/>
+      <c r="AY19" s="36"/>
+    </row>
+    <row r="20" spans="1:55" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="15"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="35"/>
-      <c r="BA16" s="35"/>
-      <c r="BB16" s="36"/>
-    </row>
-    <row r="17" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="38"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="35"/>
-    </row>
-    <row r="18" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108" t="s">
+      <c r="N20" s="20"/>
+      <c r="O20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="38"/>
-    </row>
-    <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="38"/>
-    </row>
-    <row r="20" spans="1:55" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112" t="str">
-        <f>O20</f>
-        <v>52330</v>
-      </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="113" t="s">
+      <c r="U20" s="55">
+        <v>0.26898871600000002</v>
+      </c>
+      <c r="AX20" s="35"/>
+      <c r="AY20" s="36"/>
+    </row>
+    <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="114">
-        <f>U20</f>
-        <v>0.26898871600000002</v>
-      </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="30" t="s">
+      <c r="N21" s="20"/>
+      <c r="O21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="U20" s="62">
-        <v>0.26898871600000002</v>
-      </c>
-      <c r="AX20" s="37"/>
-      <c r="AY20" s="38"/>
-    </row>
-    <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112" t="str">
-        <f>O21</f>
-        <v>BH-101</v>
-      </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="113" t="s">
+      <c r="U21" s="51">
+        <v>1.8</v>
+      </c>
+      <c r="AX21" s="35"/>
+      <c r="AY21" s="36"/>
+    </row>
+    <row r="22" spans="1:55" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="114">
-        <f>U21</f>
-        <v>1.8</v>
-      </c>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="30" t="s">
+      <c r="N22" s="20"/>
+      <c r="O22" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="54">
-        <v>1.8</v>
-      </c>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="38"/>
-    </row>
-    <row r="22" spans="1:55" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112" t="str">
-        <f>O22</f>
-        <v>0.9</v>
-      </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="113" t="s">
+      <c r="U22" s="51">
+        <v>2.74</v>
+      </c>
+      <c r="AX22" s="95"/>
+      <c r="AY22" s="90"/>
+    </row>
+    <row r="23" spans="1:55" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="114">
-        <f>U22</f>
-        <v>2.74</v>
-      </c>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="53" t="s">
+      <c r="N23" s="20"/>
+      <c r="O23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" s="54">
-        <v>2.74</v>
-      </c>
-      <c r="AX22" s="83"/>
-      <c r="AY22" s="81"/>
-    </row>
-    <row r="23" spans="1:55" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="112" t="str">
-        <f>O23</f>
-        <v>Суглинок щебенистый, мягкопластичный, легкий пылеватый</v>
-      </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="113" t="s">
+      <c r="U23" s="51">
+        <v>0.9316828232444444</v>
+      </c>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="33"/>
+      <c r="BB23" s="34"/>
+    </row>
+    <row r="24" spans="1:55" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="114">
-        <f>U23</f>
-        <v>0.9316828232444444</v>
-      </c>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="30" t="s">
+      <c r="N24" s="20"/>
+      <c r="O24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="U23" s="54">
-        <v>0.9316828232444444</v>
-      </c>
-      <c r="AX23" s="33"/>
-      <c r="AY23" s="34"/>
-      <c r="AZ23" s="35"/>
-      <c r="BA23" s="35"/>
-      <c r="BB23" s="36"/>
-    </row>
-    <row r="24" spans="1:55" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112" t="str">
-        <f>O24</f>
-        <v>КД</v>
-      </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="113" t="s">
+      <c r="U24" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="33"/>
+      <c r="BB24" s="33"/>
+    </row>
+    <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="AX25" s="35"/>
+      <c r="AY25" s="36"/>
+      <c r="BC25" s="39"/>
+    </row>
+    <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="114">
-        <f>U24</f>
-        <v>0.8</v>
-      </c>
-      <c r="J24" s="115"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="22"/>
-      <c r="O24" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" s="54">
-        <v>0.8</v>
-      </c>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="38"/>
-      <c r="AZ24" s="39"/>
-      <c r="BA24" s="35"/>
-      <c r="BB24" s="35"/>
-    </row>
-    <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="AX25" s="37"/>
-      <c r="AY25" s="38"/>
-      <c r="BC25" s="41"/>
-    </row>
-    <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="38"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="AX26" s="35"/>
+      <c r="AY26" s="36"/>
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="AX27" s="37"/>
-      <c r="AY27" s="38"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="75"/>
+      <c r="AX27" s="35"/>
+      <c r="AY27" s="36"/>
     </row>
     <row r="28" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="105"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="38"/>
+      <c r="AX28" s="35"/>
+      <c r="AY28" s="36"/>
     </row>
     <row r="29" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="81"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="90"/>
     </row>
     <row r="30" spans="1:55" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="AX30" s="33"/>
-      <c r="AY30" s="34"/>
-      <c r="AZ30" s="35"/>
-      <c r="BA30" s="35"/>
-      <c r="BB30" s="36"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="33"/>
+      <c r="BA30" s="33"/>
+      <c r="BB30" s="34"/>
     </row>
     <row r="31" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="AX31" s="37"/>
-      <c r="AY31" s="38"/>
-      <c r="AZ31" s="39"/>
-      <c r="BA31" s="35"/>
-      <c r="BB31" s="35"/>
+      <c r="AX31" s="35"/>
+      <c r="AY31" s="36"/>
+      <c r="AZ31" s="37"/>
+      <c r="BA31" s="33"/>
+      <c r="BB31" s="33"/>
     </row>
     <row r="32" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="AX32" s="37"/>
-      <c r="AY32" s="38"/>
+      <c r="AX32" s="35"/>
+      <c r="AY32" s="36"/>
     </row>
     <row r="33" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="AX33" s="37"/>
-      <c r="AY33" s="38"/>
+      <c r="AX33" s="35"/>
+      <c r="AY33" s="36"/>
     </row>
     <row r="34" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="38"/>
+      <c r="AX34" s="35"/>
+      <c r="AY34" s="36"/>
     </row>
     <row r="35" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="38"/>
-    </row>
-    <row r="36" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-    </row>
-    <row r="37" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-    </row>
-    <row r="38" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-    </row>
-    <row r="39" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-    </row>
-    <row r="40" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-    </row>
-    <row r="41" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-    </row>
-    <row r="42" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-    </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-    </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A44" s="105"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-    </row>
+      <c r="AX35" s="35"/>
+      <c r="AY35" s="36"/>
+    </row>
+    <row r="36" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:51" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="105"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="N46" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="O46" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q46" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="R46" s="70" t="s">
-        <v>56</v>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="N46" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="O46" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q46" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="63" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="105"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="74"/>
-      <c r="W47" s="50">
-        <v>1</v>
-      </c>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="67"/>
     </row>
     <row r="48" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="118"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="75" t="e">
+      <c r="A48" s="1"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="68" t="e">
         <f>SLOPE(O47:O49,N47:N49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q48" s="76" t="e">
+      <c r="Q48" s="69" t="e">
         <f>ATAN(P48)*180/PI()</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="77" t="e">
+      <c r="R48" s="70" t="e">
         <f>((O47+O48+O49)*(N47^2+N48^2+N49^2)-(N47+N48+N49)*(O47*N47+O48*N48+O49*N49))/(3*(N47^2+N48^2+N49^2)-((N47+N48+N49)^2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="79"/>
-    </row>
-    <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="118"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="Q50" s="25"/>
-    </row>
-    <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="72"/>
+    </row>
+    <row r="50" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="Q50" s="23"/>
+    </row>
+    <row r="51" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="56"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="85"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -4705,24 +3482,24 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="28"/>
+      <c r="Q51" s="26"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="51"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="26" t="s">
-        <v>31</v>
+      <c r="N52" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4732,7 +3509,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4742,10 +3519,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="29">
+      <c r="N53" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="27">
         <v>20</v>
       </c>
       <c r="P53" s="1"/>
@@ -4755,12 +3532,12 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M54" s="1"/>
-      <c r="N54" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="O54" s="63">
+      <c r="N54" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="56">
         <v>0.04</v>
       </c>
       <c r="P54" s="1"/>
@@ -4770,318 +3547,305 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="7" t="s">
+    <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="7"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="6"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60" s="94"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="94"/>
+      <c r="T60" s="94"/>
+      <c r="U60" s="94"/>
+      <c r="V60" s="94"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="9" t="s">
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="90"/>
+      <c r="S61" s="90"/>
+      <c r="T61" s="90"/>
+      <c r="U61" s="90"/>
+    </row>
+    <row r="63" spans="1:24" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O57" s="8"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="7" t="s">
+      <c r="H63" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7" t="s">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F64" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O58" s="8"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="9"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="82" t="s">
+      <c r="G64" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="82" t="s">
+      <c r="H64" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="81"/>
-      <c r="S60" s="81"/>
-      <c r="T60" s="81"/>
-      <c r="U60" s="81"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="84" t="s">
+      <c r="J64" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
-      <c r="S61" s="81"/>
-      <c r="T61" s="81"/>
-      <c r="U61" s="81"/>
-    </row>
-    <row r="63" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F63" s="31" t="s">
+      <c r="K64" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="L64" s="52" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F64" s="50" t="s">
+      <c r="M64" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="N64" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H64" s="50" t="s">
+      <c r="O64" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="J64" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="K64" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="L64" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="M64" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="N64" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="O64" s="55" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F65" s="67"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="64"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="57"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F66" s="67"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="64"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="57"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F67" s="67"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="68"/>
-      <c r="O67" s="64"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="57"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F68" s="67"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="64"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="64"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="57"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F69" s="67"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="64"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="57"/>
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F70" s="67"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="68"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="68"/>
-      <c r="O70" s="64"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="60"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="57"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F71" s="67"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="67"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="64"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="60"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="57"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F72" s="67"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="68"/>
-      <c r="O72" s="64"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="57"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
-      <c r="D73" s="65"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="68"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="68"/>
-      <c r="O73" s="64"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="D73" s="58"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="57"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F74" s="67"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="64"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="64"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="57"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F75" s="67"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="68"/>
-      <c r="O75" s="64"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="57"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="65"/>
-      <c r="C76" s="69"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="68"/>
-      <c r="O76" s="64"/>
+      <c r="A76" s="58"/>
+      <c r="C76" s="62"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="57"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77"/>
@@ -5094,7 +3858,7 @@
       <c r="O77"/>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
+      <c r="A78" s="58"/>
       <c r="F78"/>
       <c r="G78"/>
       <c r="J78"/>
@@ -5105,8 +3869,8 @@
       <c r="O78"/>
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="D79" s="64"/>
+      <c r="A79" s="58"/>
+      <c r="D79" s="57"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="J79"/>
@@ -5137,8 +3901,8 @@
       <c r="O81"/>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="J82"/>
@@ -5169,9 +3933,9 @@
       <c r="O84"/>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="D85" s="65"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="D85" s="58"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="J85"/>
@@ -5182,9 +3946,9 @@
       <c r="O85"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
-      <c r="B86" s="64"/>
-      <c r="D86" s="65"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="57"/>
+      <c r="D86" s="58"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="J86"/>
@@ -5205,9 +3969,9 @@
       <c r="O87"/>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
+      <c r="A88" s="57"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
       <c r="F88"/>
       <c r="G88"/>
       <c r="J88"/>
@@ -5218,8 +3982,8 @@
       <c r="O88"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
       <c r="F89"/>
       <c r="G89"/>
       <c r="J89"/>
@@ -7281,34 +6045,34 @@
     <row r="564" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AX29:AY29"/>
+    <mergeCell ref="M6:V6"/>
+    <mergeCell ref="M7:V7"/>
+    <mergeCell ref="M3:V3"/>
+    <mergeCell ref="AX22:AY22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="AX15:AY15"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M5:V5"/>
     <mergeCell ref="A61:K61"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="M6:U6"/>
     <mergeCell ref="A7:K7"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="M27:U27"/>
     <mergeCell ref="M61:U61"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="M9:V9"/>
     <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M60:U60"/>
-    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="M60:V60"/>
+    <mergeCell ref="M26:V26"/>
+    <mergeCell ref="M18:V18"/>
     <mergeCell ref="A60:K60"/>
-    <mergeCell ref="AX22:AY22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M7:U7"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="AX15:AY15"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="AX29:AY29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" fitToWidth="2" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToWidth="2" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>